--- a/RadioShows.xlsx
+++ b/RadioShows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Programming-Microsoft-Dynamics-365-Business-Central-Seventh-Edition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkarolak7141\Documents\AL\WDTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5473611-85FD-4E65-BE09-4A20F3D7E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D1772-8B43-4FFD-B7CF-E7FAC4E43C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Natalie Karolak" refreshedDate="45350.501781018516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{4990F474-1744-409B-A957-6B52467A6511}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Natalie Karolak" refreshedDate="45350.549979282405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{17DCAA3C-CE96-4DD6-992A-6A431EEF0294}">
   <cacheSource type="worksheet">
     <worksheetSource name="Data"/>
   </cacheSource>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4400C8E8-A519-4FFB-B649-19DC4EB76843}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D324FE0E-9E32-410A-B81D-C77D77AB4BDF}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83AD8DF-08FE-4330-83DA-264B855B6A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8A0CD2-748B-41DD-8531-12AAB066D0E0}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
